--- a/biology/Médecine/Molluscum_pendulum/Molluscum_pendulum.xlsx
+++ b/biology/Médecine/Molluscum_pendulum/Molluscum_pendulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrochordon, Polype fibroépithélial
-Un molluscum pendulum ou acrochordon ou polype fibroépithélial, appelé aussi tétine au Canada francophone[1], est une formation tumorale cutanée bénigne et fréquente, en forme de polype, c'est-à-dire qui forme une excroissance pédiculée. Elles se développent généralement au niveau du cou, des aisselles ou de l’aine.
+Un molluscum pendulum ou acrochordon ou polype fibroépithélial, appelé aussi tétine au Canada francophone, est une formation tumorale cutanée bénigne et fréquente, en forme de polype, c'est-à-dire qui forme une excroissance pédiculée. Elles se développent généralement au niveau du cou, des aisselles ou de l’aine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces lésions sont généralement petites, molles, rosées ou hyperpigmentées. Ce sont des polypes (excroissance reliée à la peau par un fin pédicule, et non par une large base) qui mesurent de moins de 1 mm à plus de 1 cm (rarement)[2]. Elles se localisent aux grands plis, mais également parfois aux paupières. Leur nombre augmente avec l'âge. La base étroite est évocatrice.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces lésions sont généralement petites, molles, rosées ou hyperpigmentées. Ce sont des polypes (excroissance reliée à la peau par un fin pédicule, et non par une large base) qui mesurent de moins de 1 mm à plus de 1 cm (rarement). Elles se localisent aux grands plis, mais également parfois aux paupières. Leur nombre augmente avec l'âge. La base étroite est évocatrice.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur origine est mal comprise. Elles ont pour origine un dérèglement de la reproduction des cellules des glandes sébacées qui s'hypertrophient.
 </t>
@@ -574,7 +590,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces lésions sont habituellement nombreuses. Elles siègent surtout dans les grands plis du corps : aine, région axillaire, paupières, etc.  
 </t>
@@ -605,7 +623,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Si les lésions sont asymptomatiques, aucun traitement n'est nécessaire sauf si elles montrent des signes d'irritation (par frottement notamment) ou pour des raisons esthétiques.
 Un médecin procède alors à leur ablation à la curette après anesthésie locale.
